--- a/Energy Consumption3.xlsx
+++ b/Energy Consumption3.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.072430362328219</v>
+        <v>8.185315555808703</v>
       </c>
       <c r="C2" t="n">
-        <v>1.00826622855782</v>
+        <v>0.7782262909704238</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.97123521102375</v>
+        <v>9.447135311384551</v>
       </c>
       <c r="C3" t="n">
-        <v>2.045651366975172</v>
+        <v>1.95985241919762</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.159338213863498</v>
+        <v>15.64013449533723</v>
       </c>
       <c r="C4" t="n">
-        <v>2.97900678978926</v>
+        <v>2.911798748634491</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.354680536889227</v>
+        <v>15.71270320298209</v>
       </c>
       <c r="C5" t="n">
-        <v>3.89066387330999</v>
+        <v>3.78697830538002</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0458890573747</v>
+        <v>15.97519774768478</v>
       </c>
       <c r="C6" t="n">
-        <v>4.996148124679273</v>
+        <v>4.795199348677913</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.35245301203999</v>
+        <v>16.04015616940114</v>
       </c>
       <c r="C7" t="n">
-        <v>6.134101268028489</v>
+        <v>5.761518494377109</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.53895931078926</v>
+        <v>19.75520056307449</v>
       </c>
       <c r="C8" t="n">
-        <v>7.132982702004111</v>
+        <v>6.748925997640637</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.69695907254886</v>
+        <v>23.84190300906377</v>
       </c>
       <c r="C9" t="n">
-        <v>8.328342143199764</v>
+        <v>7.668723920661449</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18.62451763605042</v>
+        <v>23.87664518743228</v>
       </c>
       <c r="C10" t="n">
-        <v>9.437176888937911</v>
+        <v>8.665068007336934</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20.1775993476774</v>
+        <v>29.25475426329459</v>
       </c>
       <c r="C11" t="n">
-        <v>10.29730375701338</v>
+        <v>9.394963830161716</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20.26903567756816</v>
+        <v>30.06758303421456</v>
       </c>
       <c r="C12" t="n">
-        <v>11.15773626253261</v>
+        <v>10.17149312133259</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.8890981021833</v>
+        <v>31.02304977495041</v>
       </c>
       <c r="C13" t="n">
-        <v>12.2932213178118</v>
+        <v>11.05340859689823</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>22.0134957642917</v>
+        <v>31.13628047117407</v>
       </c>
       <c r="C14" t="n">
-        <v>13.50466835235405</v>
+        <v>12.00499148860196</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>24.00218456985617</v>
+        <v>33.37456298020494</v>
       </c>
       <c r="C15" t="n">
-        <v>14.58629406776757</v>
+        <v>12.90602332559623</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>24.35885449103626</v>
+        <v>38.96524419910486</v>
       </c>
       <c r="C16" t="n">
-        <v>15.70197922654464</v>
+        <v>13.83275445896211</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.09315161073408</v>
+        <v>39.74668882150542</v>
       </c>
       <c r="C17" t="n">
-        <v>16.59870672046349</v>
+        <v>14.64606333307143</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.36796316838233</v>
+        <v>40.01870186156726</v>
       </c>
       <c r="C18" t="n">
-        <v>17.76125417074893</v>
+        <v>15.53040120661702</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>30.00349139134763</v>
+        <v>42.76794407475322</v>
       </c>
       <c r="C19" t="n">
-        <v>19.01437535156304</v>
+        <v>16.43152165850896</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>30.37448351346693</v>
+        <v>43.77518365362869</v>
       </c>
       <c r="C20" t="n">
-        <v>19.91178944561508</v>
+        <v>17.23797235101107</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>33.95559568854861</v>
+        <v>45.14477737576481</v>
       </c>
       <c r="C21" t="n">
-        <v>21.23566749285314</v>
+        <v>18.06463496752176</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>36.05055359840131</v>
+        <v>45.21813687592143</v>
       </c>
       <c r="C22" t="n">
-        <v>22.44645858715106</v>
+        <v>18.97408342626731</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>40.51332870435945</v>
+        <v>45.28016142168637</v>
       </c>
       <c r="C23" t="n">
-        <v>23.28680287271068</v>
+        <v>19.88677315455734</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>40.64417064257179</v>
+        <v>45.47118925671833</v>
       </c>
       <c r="C24" t="n">
-        <v>24.3303199091062</v>
+        <v>21.06183242197405</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>47.06708405177613</v>
+        <v>45.54661958767856</v>
       </c>
       <c r="C25" t="n">
-        <v>25.62971435506785</v>
+        <v>21.95014255816888</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>48.68742868983858</v>
+        <v>49.13520885808486</v>
       </c>
       <c r="C26" t="n">
-        <v>26.68962712912816</v>
+        <v>22.82220535365735</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>48.90071370956619</v>
+        <v>50.92835473966905</v>
       </c>
       <c r="C27" t="n">
-        <v>27.68871347470825</v>
+        <v>23.75618307681371</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>51.03068821892185</v>
+        <v>51.26453784191647</v>
       </c>
       <c r="C28" t="n">
-        <v>28.89627826936712</v>
+        <v>24.69266577581023</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>55.44532136864397</v>
+        <v>53.03099358936512</v>
       </c>
       <c r="C29" t="n">
-        <v>29.99624922727638</v>
+        <v>25.61306973375901</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>61.43883609309671</v>
+        <v>56.6376471475108</v>
       </c>
       <c r="C30" t="n">
-        <v>30.96322963036448</v>
+        <v>26.53375034456346</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>61.68577282950059</v>
+        <v>68.9268166789534</v>
       </c>
       <c r="C31" t="n">
-        <v>32.14756049060546</v>
+        <v>27.40907657748353</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>65.54439211869021</v>
+        <v>70.925234315601</v>
       </c>
       <c r="C32" t="n">
-        <v>33.35354295121258</v>
+        <v>28.27044362247271</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>65.94048897410319</v>
+        <v>71.00669629517439</v>
       </c>
       <c r="C33" t="n">
-        <v>34.20177196671152</v>
+        <v>29.17203192327981</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.08027881095104</v>
+        <v>72.46640992221448</v>
       </c>
       <c r="C34" t="n">
-        <v>35.25927053809863</v>
+        <v>30.00774507921831</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66.40736208842952</v>
+        <v>77.19908838582306</v>
       </c>
       <c r="C35" t="n">
-        <v>36.84975457244278</v>
+        <v>31.08034125291271</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>75.220825923985</v>
+        <v>77.26955607505859</v>
       </c>
       <c r="C36" t="n">
-        <v>37.77597218902558</v>
+        <v>31.87670872747315</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>77.16343185994353</v>
+        <v>77.34336286177258</v>
       </c>
       <c r="C37" t="n">
-        <v>38.7844035638243</v>
+        <v>32.74389901949375</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>81.14612281096426</v>
+        <v>77.43956816434813</v>
       </c>
       <c r="C38" t="n">
-        <v>39.68318459147976</v>
+        <v>33.67043807320054</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>85.07106715524563</v>
+        <v>82.97519845047354</v>
       </c>
       <c r="C39" t="n">
-        <v>40.84075224916771</v>
+        <v>34.51558437015745</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>85.18885783767244</v>
+        <v>83.06741375479658</v>
       </c>
       <c r="C40" t="n">
-        <v>41.95379301004689</v>
+        <v>35.33346092965965</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>86.0713303212776</v>
+        <v>84.3530685895562</v>
       </c>
       <c r="C41" t="n">
-        <v>43.11089332177188</v>
+        <v>36.41652808240357</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>86.70790673733329</v>
+        <v>87.41360372121729</v>
       </c>
       <c r="C42" t="n">
-        <v>44.1556930442322</v>
+        <v>37.68930836904541</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>88.25525933721222</v>
+        <v>87.67977659055087</v>
       </c>
       <c r="C43" t="n">
-        <v>45.06717907606064</v>
+        <v>38.67798138596294</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>89.12219013059976</v>
+        <v>94.79699174739017</v>
       </c>
       <c r="C44" t="n">
-        <v>46.08425246074115</v>
+        <v>39.60189703367158</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>89.72568157829932</v>
+        <v>94.89318007233412</v>
       </c>
       <c r="C45" t="n">
-        <v>47.09279353151566</v>
+        <v>40.46169155816882</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>89.84770838164577</v>
+        <v>97.01794891088674</v>
       </c>
       <c r="C46" t="n">
-        <v>48.08418824289122</v>
+        <v>41.24420387961448</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>99.64941498883606</v>
+        <v>97.8336238251179</v>
       </c>
       <c r="C47" t="n">
-        <v>48.88779100292638</v>
+        <v>42.08466089909074</v>
       </c>
     </row>
   </sheetData>
